--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,9 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.10 23:39</t>
-  </si>
-  <si>
     <t>bayijianjujie</t>
   </si>
   <si>
@@ -288,6 +285,22 @@
   </si>
   <si>
     <t>12.12 17:24 绑定账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.13 0:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfsafvcvvq</t>
+  </si>
+  <si>
+    <t>12.10 23:39
+第二次绑定12.13 1:18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,21 +753,21 @@
   <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="15.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="4"/>
+    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -786,29 +802,29 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -820,19 +836,19 @@
       <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -840,289 +856,297 @@
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8">
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
         <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8">
         <v>5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8">
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8">
         <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11">
         <v>2102864516</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1131,7 +1155,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1140,7 +1164,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1149,7 +1173,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1158,7 +1182,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1167,7 +1191,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1176,7 +1200,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1185,7 +1209,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1194,7 +1218,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1203,7 +1227,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1212,7 +1236,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1221,7 +1245,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1230,7 +1254,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1239,7 +1263,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1248,7 +1272,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1257,7 +1281,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1266,7 +1290,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1275,7 +1299,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1284,7 +1308,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1293,7 +1317,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1302,7 +1326,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1311,7 +1335,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1320,7 +1344,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1329,7 +1353,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1338,7 +1362,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1347,7 +1371,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1356,7 +1380,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1365,7 +1389,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1374,7 +1398,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1383,7 +1407,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1392,7 +1416,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1401,7 +1425,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1410,7 +1434,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1419,7 +1443,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1428,7 +1452,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1437,7 +1461,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1446,7 +1470,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1455,7 +1479,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1464,7 +1488,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1473,7 +1497,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1482,7 +1506,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1491,7 +1515,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1500,7 +1524,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1509,7 +1533,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1518,7 +1542,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1527,7 +1551,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1536,7 +1560,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1545,7 +1569,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1554,7 +1578,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1563,7 +1587,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1572,7 +1596,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1581,7 +1605,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1590,7 +1614,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1599,7 +1623,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1608,7 +1632,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1617,7 +1641,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1626,7 +1650,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1635,7 +1659,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1644,7 +1668,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1653,7 +1677,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1662,7 +1686,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1671,7 +1695,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1680,7 +1704,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1689,7 +1713,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1698,7 +1722,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1707,7 +1731,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1716,7 +1740,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1725,7 +1749,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1734,7 +1758,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1743,7 +1767,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1752,7 +1776,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1761,7 +1785,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1770,7 +1794,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1779,7 +1803,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1788,7 +1812,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1797,7 +1821,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1806,7 +1830,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1815,7 +1839,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1824,7 +1848,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1833,7 +1857,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1842,7 +1866,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1851,7 +1875,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1860,7 +1884,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1869,7 +1893,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1878,7 +1902,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1887,7 +1911,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1896,7 +1920,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1905,7 +1929,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1914,7 +1938,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1923,7 +1947,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1932,7 +1956,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1941,7 +1965,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1950,7 +1974,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1959,7 +1983,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1968,7 +1992,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1977,7 +2001,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1986,7 +2010,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1995,7 +2019,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2004,7 +2028,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2013,7 +2037,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2022,7 +2046,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2031,7 +2055,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2040,7 +2064,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2049,7 +2073,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2058,7 +2082,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2067,7 +2091,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2076,7 +2100,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2085,7 +2109,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2094,7 +2118,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2103,7 +2127,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2112,7 +2136,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2121,7 +2145,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2130,7 +2154,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2139,7 +2163,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2148,7 +2172,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2157,7 +2181,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2166,7 +2190,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2175,7 +2199,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2184,7 +2208,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2193,7 +2217,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2202,7 +2226,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2211,7 +2235,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2220,7 +2244,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2229,7 +2253,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2238,7 +2262,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2247,7 +2271,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2256,7 +2280,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2265,7 +2289,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2274,7 +2298,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2283,7 +2307,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2292,7 +2316,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2301,7 +2325,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2310,7 +2334,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2319,7 +2343,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2328,7 +2352,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2337,7 +2361,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2346,7 +2370,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2355,7 +2379,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2364,7 +2388,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2373,7 +2397,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2382,7 +2406,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2391,7 +2415,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2400,7 +2424,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2409,7 +2433,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2418,7 +2442,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2427,7 +2451,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2436,7 +2460,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2445,7 +2469,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2454,7 +2478,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2463,7 +2487,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2472,7 +2496,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2481,7 +2505,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2490,7 +2514,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2499,7 +2523,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2508,7 +2532,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2517,7 +2541,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2526,7 +2550,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2535,7 +2559,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2544,7 +2568,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2553,7 +2577,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2562,7 +2586,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2571,7 +2595,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2580,7 +2604,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2589,7 +2613,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2598,7 +2622,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2607,7 +2631,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2616,7 +2640,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2625,7 +2649,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2634,7 +2658,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2643,7 +2667,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2652,7 +2676,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2661,7 +2685,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2670,7 +2694,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2679,7 +2703,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2688,7 +2712,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2697,7 +2721,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2706,7 +2730,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2715,7 +2739,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2724,7 +2748,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2733,7 +2757,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2742,7 +2766,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2751,7 +2775,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2760,7 +2784,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2769,7 +2793,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2778,7 +2802,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2787,7 +2811,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2796,7 +2820,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2805,7 +2829,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2814,7 +2838,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2823,7 +2847,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2832,7 +2856,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2841,7 +2865,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2850,7 +2874,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2859,7 +2883,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2868,7 +2892,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2877,7 +2901,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2886,7 +2910,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2895,7 +2919,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -2904,7 +2928,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2913,7 +2937,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -2922,7 +2946,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -2931,7 +2955,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -2940,7 +2964,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -2949,7 +2973,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -2958,7 +2982,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -2967,7 +2991,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -2976,7 +3000,7 @@
       <c r="F229" s="2"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -2985,7 +3009,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2994,7 +3018,7 @@
       <c r="F231" s="2"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3003,7 +3027,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3012,7 +3036,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3021,7 +3045,7 @@
       <c r="F234" s="2"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3030,7 +3054,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3039,7 +3063,7 @@
       <c r="F236" s="2"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3048,7 +3072,7 @@
       <c r="F237" s="2"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3057,7 +3081,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3066,7 +3090,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3075,7 +3099,7 @@
       <c r="F240" s="2"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3084,7 +3108,7 @@
       <c r="F241" s="2"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3093,7 +3117,7 @@
       <c r="F242" s="2"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3102,7 +3126,7 @@
       <c r="F243" s="2"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3111,7 +3135,7 @@
       <c r="F244" s="2"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3120,7 +3144,7 @@
       <c r="F245" s="2"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3129,7 +3153,7 @@
       <c r="F246" s="2"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -3138,7 +3162,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -3147,7 +3171,7 @@
       <c r="F248" s="2"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -3156,7 +3180,7 @@
       <c r="F249" s="2"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -3165,7 +3189,7 @@
       <c r="F250" s="2"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -3174,7 +3198,7 @@
       <c r="F251" s="2"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -3183,7 +3207,7 @@
       <c r="F252" s="2"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -3192,7 +3216,7 @@
       <c r="F253" s="2"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -3201,7 +3225,7 @@
       <c r="F254" s="2"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -3210,7 +3234,7 @@
       <c r="F255" s="2"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -3219,7 +3243,7 @@
       <c r="F256" s="2"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -3228,7 +3252,7 @@
       <c r="F257" s="2"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -3237,7 +3261,7 @@
       <c r="F258" s="2"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -3246,7 +3270,7 @@
       <c r="F259" s="2"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -3255,7 +3279,7 @@
       <c r="F260" s="2"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -3264,7 +3288,7 @@
       <c r="F261" s="2"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -3273,7 +3297,7 @@
       <c r="F262" s="2"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -3282,7 +3306,7 @@
       <c r="F263" s="2"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -3306,75 +3330,75 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3391,9 +3415,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>12.12 17:12绑定账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未绑定支付方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,6 +316,23 @@
   <si>
     <t>A
 绑定支付时间12.13 9:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z
+12.13 10:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9 晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12 晚 两次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +400,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,14 +454,17 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -776,10 +786,11 @@
     <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,10 +813,13 @@
         <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -819,11 +833,14 @@
       <c r="G2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -839,11 +856,14 @@
       <c r="G3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -855,15 +875,16 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>75</v>
+      <c r="F4" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -878,12 +899,13 @@
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -901,9 +923,10 @@
       <c r="G6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -921,9 +944,10 @@
       <c r="G7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -943,9 +967,10 @@
       <c r="G8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -965,9 +990,10 @@
       <c r="G9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -987,10 +1013,11 @@
       <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="7"/>
@@ -1004,34 +1031,36 @@
       <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2102864516</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2102864516</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="8"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1043,8 +1072,9 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1053,8 +1083,9 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1063,8 +1094,9 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1073,8 +1105,9 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1083,8 +1116,9 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1093,8 +1127,9 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1103,8 +1138,9 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1113,8 +1149,9 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -1123,26 +1160,29 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,25 @@
   </si>
   <si>
     <t>12.12 晚 两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeniffuuu</t>
+  </si>
+  <si>
+    <t>12.13 19:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15985830370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muyyyyy11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.13 19:47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1202,28 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Eru7921129</t>
   </si>
   <si>
@@ -69,18 +65,12 @@
     <t>Daibudong1</t>
   </si>
   <si>
-    <t>Pangzi668899</t>
-  </si>
-  <si>
     <t>Lucy19947104</t>
   </si>
   <si>
     <t>Xijinping3864</t>
   </si>
   <si>
-    <t>Angelinababy603</t>
-  </si>
-  <si>
     <t>12.09 10:54</t>
   </si>
   <si>
@@ -206,26 +196,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041084843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>02041090614</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑定支付账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041084843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041090614</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.10 23:58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +237,6 @@
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 没验证 但输了号码 2102864516</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,16 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A
-绑定支付时间12.13 9:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A
-绑定支付时间12.13 9:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Z
 12.13 10:54</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +320,157 @@
   </si>
   <si>
     <t>12.13 19:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.13 23:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.14 0:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hh877627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.14 0:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.14 0:20 
+绑定手机时创号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 没验证 但输了号码
+ 2102864516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A
+绑定支付时间
+12.13 9:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A
+绑定支付时间
+12.13 9:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟</t>
+  </si>
+  <si>
+    <t>能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试,应该同8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041090614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022
+12.15 20:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022
+12.15 20:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022
+12.15 20:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48小时后尝试支付,96小时后能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.16 21:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pangzi668899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K
+12.16 22:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.14能充
+12.16 22:34不能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.16 22:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angelinababy603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.16 22:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K
+12.16 22:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.14 0:22
+Z
+未尝试支付,12.15晚可验证是否需要尝试支付
+需要尝试..12.16 21:58尝试支付
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.16 22:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +538,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,9 +610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,14 +617,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,10 +967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -801,15 +979,16 @@
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,406 +1002,541 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:34" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="19">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="H7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2102864516</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="8" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2102864516</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="C26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,9 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bayijianjujie</t>
-  </si>
-  <si>
     <t>d0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,9 +62,6 @@
     <t>Daibudong1</t>
   </si>
   <si>
-    <t>Lucy19947104</t>
-  </si>
-  <si>
     <t>Xijinping3864</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>12.09 13:35</t>
-  </si>
-  <si>
-    <t>12.12 7.32</t>
   </si>
   <si>
     <t>12.11 22:02</t>
@@ -369,22 +360,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30分钟</t>
-  </si>
-  <si>
     <t>能充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未测试,应该同8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,11 +409,6 @@
   <si>
     <t>K
 12.16 22:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.14能充
-12.16 22:34不能充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,6 +446,161 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108333558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 17:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.16晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.16晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108493691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02040879226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 20:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bayijianjujie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321983
+12.17 22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 22:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy19947104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12 7.32
+第二次12.18 23:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 20:40
+不能下载游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:20高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:31高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:38高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:47高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:50检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索信息出错
+月说12.19晚可做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19上午
+检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:53高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 13:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320019
+12.19 14:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 17:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320027
+12.19 17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 17:45高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 15:23高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,12 +689,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -593,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,9 +725,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,52 +737,59 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +1098,8 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -980,12 +1108,13 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1002,541 +1131,608 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:34" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+    </row>
+    <row r="6" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J7" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="18">
+        <v>6</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2102864516</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="F12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:34" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="15">
-        <v>3</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="15">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="F14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="19">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="E15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="15">
-        <v>7</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2102864516</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="H16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="F17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="I22" s="2"/>
+        <v>34</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>63</v>
+      </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>41</v>
+      </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1548,81 +1744,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="3.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,9 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>camera7983</t>
-  </si>
-  <si>
     <t>02041085340</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +244,6 @@
   </si>
   <si>
     <t>12.12 17:24 绑定账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kawefjofe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,11 +329,6 @@
   <si>
     <t>12.14 0:20 
 绑定手机时创号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 没验证 但输了号码
- 2102864516</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,40 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.19 11:20高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:31高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:38高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:47高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:50检索信息出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索信息出错
-月说12.19晚可做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19上午
-检索信息出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:53高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +555,88 @@
   </si>
   <si>
     <t>12.19 15:23高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera7983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机1bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机2bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 21:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321975
+12.19 22:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320035
+12.20 9:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:35高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:50 高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.18晚检索信息出错
+12.20上午信息检索出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19上午检索信息出错
+12.20 10:16检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:50检索信息出错
+12.20 13:38信息检索出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:53高风险
+12.20 14:00高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:47高风险
+12.20 16:37高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:20高风险
+12.20 16:37高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:31高风险
+12.20 16:48高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:38高风险
+12.20 17:27高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,12 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,9 +779,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,9 +786,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,6 +814,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,8 +1125,8 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1109,12 +1136,12 @@
     <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="20"/>
+    <col min="10" max="10" width="16.33203125" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1131,473 +1158,471 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:34" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+    </row>
+    <row r="6" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2102864516</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:34" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:34" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:34" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:34" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-    </row>
-    <row r="6" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="F16" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="18">
-        <v>6</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="9">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="G16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2102864516</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:34" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="G17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1606,62 +1631,62 @@
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>103</v>
+      <c r="E18" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="G19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>139</v>
+        <v>58</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1672,41 +1697,65 @@
       <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>141</v>
+      <c r="E21" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
@@ -1715,21 +1764,21 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1826,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,27 +465,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 20:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bayijianjujie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 22:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy19947104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12 7.32
+第二次12.18 23:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17 20:40
+不能下载游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 13:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320019
+12.19 14:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 17:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320027
+12.19 17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera7983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机1bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机2bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 21:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321975
+12.19 22:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320035
+12.20 9:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:35高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afojlakvoie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 21:02
+虚拟机手机直接创号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>02040879226</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.17 20:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bayijianjujie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>02041084838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018325331
+12.20 21:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机3bluestacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创号绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 22:51 高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:53高风险
+12.20 14:00高风险
+12.21 13:59 能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:20高风险
+12.20 16:37高风险
+12.21 16:50高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:47高风险
+12.20 16:37高风险
+12.21 17:00高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:50检索信息出错
+12.20 13:38信息检索出错
+12.21 17:19检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:31高风险
+12.20 16:48高风险
+12.21 18:05 能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19上午检索信息出错
+12.20 10:16检索信息出错
+12.21 18:16检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.18晚检索信息出错
+12.20上午信息检索出错
+12.21 18:22信息检索出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z: 12.21 18:32 高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 15:23高风险
+12.21 19:05能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:50 高风险
+12.21 12:25 高风险
+12.21 20:22高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z 12.21 20:45捕鱼高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.21 20:45
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 20:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 20:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:38高风险
+12.20 17:27高风险
+12.21 17:43能充
+短时间内被银行拒绝2次后高风险,换4G也一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 17:45高风险
+12.21 20:03列王能充
+12.21 21:08捕鱼高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 21:58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,149 +701,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.17 22:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucy19947104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.12 7.32
-第二次12.18 23:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.17 20:40
-不能下载游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 13:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018320019
-12.19 14:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 17:02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018320027
-12.19 17:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机bluestacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 17:45高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 15:23高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>camera7983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kawefjofe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机1bluestacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机2bluestacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 21:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018321975
-12.19 22:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 9:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018320035
-12.20 9:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 9:35高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 9:50 高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.18晚检索信息出错
-12.20上午信息检索出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19上午检索信息出错
-12.20 10:16检索信息出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:50检索信息出错
-12.20 13:38信息检索出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:53高风险
-12.20 14:00高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:47高风险
-12.20 16:37高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:20高风险
-12.20 16:37高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:31高风险
-12.20 16:48高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:38高风险
-12.20 17:27高风险</t>
+    <t>12.21 22:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 22:26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,11 +881,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,19 +1197,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
@@ -1241,14 +1315,14 @@
         <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:34" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -1372,9 +1446,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -1390,10 +1464,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="12"/>
@@ -1419,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="12"/>
@@ -1455,7 +1529,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="14"/>
@@ -1473,7 +1547,7 @@
         <v>59</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="12"/>
@@ -1499,7 +1573,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="12"/>
@@ -1523,60 +1597,64 @@
         <v>81</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:34" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:34" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:34" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="H14" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>151</v>
+      <c r="H15" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:34" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -1595,12 +1673,12 @@
         <v>108</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
@@ -1613,18 +1691,18 @@
         <v>96</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1635,121 +1713,134 @@
         <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="G20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1782,6 +1873,29 @@
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +1910,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1899,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="176">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,11 +375,6 @@
   <si>
     <t>4693960017605022
 12.15 20:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960017605022
-12.15 20:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,16 +691,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12.21 22:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 22:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022
+12.15 20:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4693960018321983
 12.17 22:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.21 22:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 22:26</t>
+    <t>4693960018321983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:26捕鱼高风险</t>
+  </si>
+  <si>
+    <t>12.21 23:26捕鱼高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,9 +1242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1315,14 +1358,14 @@
         <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:34" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -1420,7 +1463,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1440,15 +1483,15 @@
         <v>85</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -1464,10 +1507,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="12"/>
@@ -1493,14 +1536,14 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
@@ -1519,13 +1562,13 @@
         <v>19</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -1547,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="12"/>
@@ -1573,7 +1616,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="12"/>
@@ -1588,7 +1631,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>79</v>
@@ -1597,7 +1640,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="12"/>
@@ -1612,22 +1655,22 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.25">
@@ -1643,13 +1686,13 @@
         <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1667,13 +1710,13 @@
         <v>91</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1688,16 +1731,16 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1710,16 +1753,16 @@
         <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1733,22 +1776,22 @@
         <v>43</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="H19" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
@@ -1761,22 +1804,22 @@
         <v>58</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="H20" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
@@ -1789,58 +1832,58 @@
         <v>42</v>
       </c>
       <c r="E21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1851,6 +1894,18 @@
       <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E24" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1863,6 +1918,18 @@
       <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1874,28 +1941,40 @@
       <c r="D26" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="D27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="231">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,9 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yls7104</t>
-  </si>
-  <si>
     <t>di7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +233,6 @@
   </si>
   <si>
     <t>02041085340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.12 17:12绑定账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,9 +279,6 @@
   <si>
     <t>12.12 晚 两次</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jeniffuuu</t>
   </si>
   <si>
     <t>12.13 19:38</t>
@@ -365,16 +355,6 @@
   </si>
   <si>
     <t>02041090614</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960017605022
-12.15 20:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960017605022
-12.15 20:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,11 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.12 7.32
-第二次12.18 23:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.17 20:40
 不能下载游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,11 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4693960018320027
-12.19 17:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主机bluestacks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.20 9:35高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>afojlakvoie2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,10 +559,6 @@
   </si>
   <si>
     <t>创号绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 22:51 高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -606,100 +568,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.19 11:20高风险
-12.20 16:37高风险
-12.21 16:50高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:47高风险
-12.20 16:37高风险
-12.21 17:00高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:50检索信息出错
-12.20 13:38信息检索出错
-12.21 17:19检索信息出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.19 11:31高风险
 12.20 16:48高风险
 12.21 18:05 能充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12.19 15:23高风险
+12.21 19:05能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.21 20:45
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 20:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 20:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 21:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 22:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 22:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022
+12.15 20:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321983
+12.17 22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:26捕鱼高风险
+12.22 10:10列王高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320027
+12.19 17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.19 11:38高风险
+12.20 17:27高风险
+12.21 17:43能充
+短时间内被银行拒绝2次后高风险,换4G也一样
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 0:10捕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.19 17:45高风险
+12.21 20:03列王能充
+12.21 21:08捕鱼高风险
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.22 23:55捕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teemoo123132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 0:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peno7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 0:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机BS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022
+12.15 20:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12 7.32
+第二次12.18 23:05
+第三次12.23 14:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z 12.21 18:32 捕鱼高风险
+12.23 14:57 列王高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12 17:12绑定账户
+12.23 15:20重新绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12.19上午检索信息出错
 12.20 10:16检索信息出错
-12.21 18:16检索信息出错</t>
+12.21 18:16检索信息出错
+12.23 15:10检索信息出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12.18晚检索信息出错
 12.20上午信息检索出错
-12.21 18:22信息检索出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z: 12.21 18:32 高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 15:23高风险
-12.21 19:05能充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 9:50 高风险
-12.21 12:25 高风险
-12.21 20:22高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z 12.21 20:45捕鱼高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12.21 20:45
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 20:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 20:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 11:38高风险
-12.20 17:27高风险
-12.21 17:43能充
-短时间内被银行拒绝2次后高风险,换4G也一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19 17:45高风险
-12.21 20:03列王能充
-12.21 21:08捕鱼高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 21:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 22:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 22:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+12.21 18:22信息检索出错
+12.23 14:23 信息检索出错 再等24小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pppopppy7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 15:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创号绑定</t>
+  </si>
+  <si>
+    <t>Z 12.21 20:45捕鱼高风险
+Z 12.23 15:50列王高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:50检索信息出错
+12.20 13:38信息检索出错
+12.21 17:19检索信息出错
+12.23 15:58 检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 16:17列王高风险
+23.23 16:55 部落高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 1:29捕鱼高风险
+12.23 14:22 列王高风险
+12.23 17:08部落高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:26捕鱼高风险
+12.22 9:22列王高风险
+12.23 梦幻西游能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:47高风险
+12.20 16:37高风险
+12.21 17:00高风险
+12.23 15:59部落能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:20高风险
+12.20 16:37高风险
+12.21 16:50高风险
+23.23 16:01高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 22:51 列王高风险
+12.23 14:04 列王高风险
+12.23 22:43 部落高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeniffuuu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321983</t>
+  </si>
+  <si>
+    <t>12.24 0:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calo7921129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,48 +857,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
+    <t>12.21 23:26捕鱼高风险
+列王不能下载
+12.23 15:37列王高风险
+12.23 22:02 部落高风险
+23.24 0:46 梦幻高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创号绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:35列王高风险
+12.24 1:03梦幻能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:50 列王高风险
+12.21 12:25列王高风险
+12.21 20:22列王高风险
+12.22 9:18列王高风险
+12.22 9:58捕鱼高风险
+12.22 11:49列王高风险
+12.24 1:35梦幻能充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 1:24捕鱼高风险
+12.23 16:36 部落高风险
+12.24 10:31 魔灵高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z 12.21 20:45捕鱼高风险
+12.23 15:21列王检索信息出错
+12.24 11:56检索出错,等到16:00再试,重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hh7921129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 12:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppk7921129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解绑支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yls7104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4693960017605022
-12.15 20:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018321983
-12.17 22:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018321983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018320019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018321058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 23:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 23:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 23:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 23:26捕鱼高风险</t>
-  </si>
-  <si>
-    <t>12.21 23:26捕鱼高风险</t>
+12.15 20:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022</t>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 12:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 13:05捕鱼高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 1:19梦幻高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 17:00梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check7921129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 17:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,9 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -924,18 +1173,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1240,11 +1505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1255,10 +1520,10 @@
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="16"/>
+    <col min="8" max="8" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1275,706 +1540,893 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+    </row>
+    <row r="6" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="13">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2102864516</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:34" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="20" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:34" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-    </row>
-    <row r="6" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="14">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="7">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2102864516</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:34" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="F26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>143</v>
+      <c r="G29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +2441,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +2520,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="306">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,9 +59,6 @@
     <t>Daibudong1</t>
   </si>
   <si>
-    <t>Xijinping3864</t>
-  </si>
-  <si>
     <t>12.09 10:54</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   <si>
     <t>12.13 0:52</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfsafvcvvq</t>
   </si>
   <si>
     <t>12.10 23:39
@@ -289,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>muyyyyy11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.13 19:47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +292,6 @@
   </si>
   <si>
     <t>12.14 0:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hh877627</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02108333558</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.17 17:41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>afojlakvoie2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.20 21:02
 虚拟机手机直接创号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,11 +524,6 @@
   </si>
   <si>
     <t>02041084838</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018325331
-12.20 21:34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -627,10 +600,6 @@
   </si>
   <si>
     <t>4693960018321983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018320019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,11 +707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z 12.21 18:32 捕鱼高风险
-12.23 14:57 列王高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.12 17:12绑定账户
 12.23 15:20重新绑定</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,11 +749,6 @@
     <t>创号绑定</t>
   </si>
   <si>
-    <t>Z 12.21 20:45捕鱼高风险
-Z 12.23 15:50列王高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.19 11:50检索信息出错
 12.20 13:38信息检索出错
 12.21 17:19检索信息出错
@@ -797,17 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.23 16:17列王高风险
-23.23 16:55 部落高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.23 1:29捕鱼高风险
-12.23 14:22 列王高风险
-12.23 17:08部落高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.21 23:26捕鱼高风险
 12.22 9:22列王高风险
 12.23 梦幻西游能充</t>
@@ -821,23 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.19 11:20高风险
-12.20 16:37高风险
-12.21 16:50高风险
-23.23 16:01高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 22:51 列王高风险
-12.23 14:04 列王高风险
-12.23 22:43 部落高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jeniffuuu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4693960018321983</t>
   </si>
   <si>
@@ -845,23 +776,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>calo7921129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21 23:26捕鱼高风险
-列王不能下载
-12.23 15:37列王高风险
-12.23 22:02 部落高风险
-23.24 0:46 梦幻高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -884,12 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.23 1:24捕鱼高风险
-12.23 16:36 部落高风险
-12.24 10:31 魔灵高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Z 12.21 20:45捕鱼高风险
 12.23 15:21列王检索信息出错
 12.24 11:56检索出错,等到16:00再试,重置</t>
@@ -968,14 +881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.24 13:05捕鱼高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.24 1:19梦幻高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.24 17:00梦幻成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,19 +893,421 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4693960017605022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 17:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到游戏</t>
+  </si>
+  <si>
+    <t>12.24 1:19梦幻高风险
+12.25 17:08 梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calo7921129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>katoon7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24 13:05捕鱼高风险
+12.25 17:46梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 16:17列王高风险
+12.23 16:55 部落高风险
+12.25 18:06梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqk7921tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.25 18:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.25 17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gh668899d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创号绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19 11:20高风险
+12.20 16:37高风险
+12.21 16:50高风险
+23.23 16:01高风险
+无法安装梦幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ii7921qp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.25 19:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 1:24捕鱼高风险
+12.23 16:36 部落高风险
+12.24 10:31 魔灵高风险
+12.25 20:33 服务器检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z 12.21 18:32 捕鱼高风险
+12.23 14:57 列王高风险
+12.25 21:19 梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xijinping3864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linda7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.25 21:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.25 21:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z 12.21 20:45捕鱼高风险
+Z 12.23 15:50列王高风险
+12.25 21:50梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hh877627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 22:51 列王高风险
+12.23 14:04 列王高风险
+12.23 22:43 部落高风险
+12.25 22:21梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机3bluestacks</t>
+  </si>
+  <si>
+    <t>4693960018325331
+12.20 21:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeniffuuu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afojlakvoie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 0:01梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpoc7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teemo7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 1:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak477921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 3:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108333558</t>
+  </si>
+  <si>
+    <t>02108333558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018325331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装游戏出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfsafvcvvq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21 23:26捕鱼高风险
+列王不能下载
+12.23 15:37列王高风险
+12.23 22:02 部落高风险
+23.24 0:46 梦幻高风险
+12.26 9:24梦幻成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kty7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23 1:29捕鱼高风险
+12.23 14:22 列王高风险
+12.23 17:08部落高风险
+已下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320019</t>
+  </si>
+  <si>
+    <t>4693960018320019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muyyyyy11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 13:02梦幻高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppino7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhofo7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rukas7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjlong7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 13:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 13:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 13:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>check7921129</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migo336699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teemoq7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teemop7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 17:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 17:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4693960017605022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.24 17:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>4693960018321983</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,15 +1459,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1170,9 +1468,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1201,6 +1496,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1505,11 +1804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1522,8 +1821,8 @@
     <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="15"/>
+    <col min="10" max="10" width="16.33203125" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1540,22 +1839,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -1566,7 +1865,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1574,13 +1873,13 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1588,25 +1887,25 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1614,25 +1913,25 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -1640,7 +1939,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
@@ -1649,784 +1948,1169 @@
         <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-    </row>
-    <row r="6" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>177</v>
+        <v>165</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="6">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8">
         <v>2102864516</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>203</v>
+        <v>57</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:34" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
-        <v>147</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>138</v>
+        <v>98</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="20" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>167</v>
+        <v>82</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>157</v>
+        <v>99</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" s="16" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>217</v>
+        <v>82</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>185</v>
+        <v>97</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>189</v>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>148</v>
+        <v>41</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>117</v>
+        <v>56</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>137</v>
+        <v>111</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>156</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H22" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="G23" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>200</v>
+      <c r="H23" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="2"/>
+    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="28" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E29" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="G30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="H31" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>183</v>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +3125,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2456,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +3196,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +3212,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +3228,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="311">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,23 +1291,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12.26 17:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 17:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>teemop7921</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.26 17:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.26 17:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960017605022</t>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neo7921d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4693960018321983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,11 +1824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2778,7 +2798,7 @@
         <v>161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>206</v>
@@ -2806,7 +2826,7 @@
         <v>213</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>214</v>
@@ -2997,6 +3017,9 @@
       <c r="C44" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>272</v>
       </c>
@@ -3015,7 +3038,9 @@
       <c r="C45" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E45" s="26" t="s">
         <v>276</v>
       </c>
@@ -3033,6 +3058,9 @@
       <c r="C46" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>277</v>
       </c>
@@ -3050,6 +3078,9 @@
       <c r="C47" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>282</v>
       </c>
@@ -3067,6 +3098,9 @@
       <c r="C48" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>288</v>
       </c>
@@ -3077,12 +3111,15 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>200</v>
@@ -3094,23 +3131,50 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>290</v>
+      <c r="F51" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -1129,10 +1129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ak477921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.26 3:21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,6 +1324,10 @@
   </si>
   <si>
     <t>找不到游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak477921</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1828,7 +1828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2517,7 +2517,7 @@
         <v>146</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="28" t="s">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -2564,7 +2564,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>139</v>
@@ -2653,7 +2653,7 @@
         <v>174</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -2798,7 +2798,7 @@
         <v>161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>206</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -2826,7 +2826,7 @@
         <v>213</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>214</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>174</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>239</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2966,22 +2966,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3012,19 +3012,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>210</v>
@@ -3032,20 +3032,20 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>261</v>
@@ -3053,70 +3053,70 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>213</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>213</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>213</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>213</v>
@@ -3125,32 +3125,32 @@
         <v>200</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>213</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="28" t="s">
@@ -3159,10 +3159,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>213</v>
@@ -3171,10 +3171,10 @@
         <v>178</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="335">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,15 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02041082834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02041084838</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041082914</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1140,14 +1132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4693960018325331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装游戏出现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sfsafvcvvq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,23 +1295,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4693960018321983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak477921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>neo7921d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>=G38:J38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friends7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkmiss7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4693960018321983</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.26 19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找不到游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ak477921</t>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lonelybeach7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082834</t>
+  </si>
+  <si>
+    <t>02041082834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wife7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive79d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败 请添加有效支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018325331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018325331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enoughtime79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,11 +1919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1859,22 +1954,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -1885,7 +1980,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1893,13 +1988,13 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1907,25 +2002,25 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1933,25 +2028,25 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -1959,7 +2054,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
@@ -1968,11 +2063,11 @@
         <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2009,20 +2104,20 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2051,7 +2146,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2059,65 +2154,65 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6">
         <v>6</v>
@@ -2126,26 +2221,26 @@
         <v>16</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6">
         <v>7</v>
@@ -2154,13 +2249,13 @@
         <v>17</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
@@ -2173,20 +2268,20 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
@@ -2201,44 +2296,44 @@
         <v>2102864516</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>74</v>
-      </c>
       <c r="H13" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -2251,22 +2346,22 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
@@ -2276,25 +2371,25 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
@@ -2304,23 +2399,23 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="H16" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
@@ -2333,16 +2428,16 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>103</v>
-      </c>
       <c r="H17" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -2355,16 +2450,16 @@
         <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -2375,25 +2470,25 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
@@ -2403,25 +2498,25 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
@@ -2431,30 +2526,30 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -2462,719 +2557,849 @@
         <v>32</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="H22" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="H27" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="D29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="F29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>272</v>
+      <c r="G29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="H30" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="H31" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>289</v>
+      <c r="F38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>279</v>
+      <c r="F40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="28" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>266</v>
+      <c r="A42" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="28" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>261</v>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>289</v>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +3414,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3453,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3469,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3509,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3517,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="348">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,70 +1359,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>02041082834</t>
+  </si>
+  <si>
+    <t>02041082834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wife7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive79d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败 请添加有效支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018325331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enoughtime79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041083007</t>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eru33895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lonelybeach7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02041082834</t>
-  </si>
-  <si>
-    <t>02041082834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wife7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>survive79d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付失败 请添加有效支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已销号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚机3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041082914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041082914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimoji7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041084838</t>
   </si>
   <si>
     <t>4693960018325331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018325331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enoughtime79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1430,7 +1480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1515,21 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1539,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,6 +1680,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1919,11 +1990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH58"/>
+  <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3087,18 +3158,18 @@
         <v>261</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>247</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3312,13 +3383,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="26" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3338,7 +3412,7 @@
         <v>314</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>176</v>
@@ -3348,58 +3422,126 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="A55" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>322</v>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="28" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>325</v>
+      <c r="H57" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="28" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3556,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +3611,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="357">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,10 +1434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gm7921d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,14 +1461,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>02041084838</t>
+  </si>
+  <si>
+    <t>4693960018325331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险
+服务器检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyp2079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082874</t>
+  </si>
+  <si>
+    <t>tty20147d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Google play时检索信息错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kimoji7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041084838</t>
-  </si>
-  <si>
-    <t>4693960018325331</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1990,11 +2026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH62"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3383,17 +3419,23 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="7" t="s">
         <v>309</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3423,7 +3465,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -3461,18 +3503,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>337</v>
+      <c r="H57" s="5" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3499,10 +3544,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>334</v>
@@ -3521,27 +3566,64 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="A62" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
         <v>343</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3638,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="432">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,14 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02041083007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041084838</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02041082960</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,14 +167,6 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041084843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041090614</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02108493691</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,10 +454,6 @@
   </si>
   <si>
     <t>camera7983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kawefjofe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teemoo123132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.23 0:33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,11 +750,6 @@
   </si>
   <si>
     <t>创号绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20 9:35列王高风险
-12.24 1:03梦幻能充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -999,13 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.23 1:24捕鱼高风险
-12.23 16:36 部落高风险
-12.24 10:31 魔灵高风险
-12.25 20:33 服务器检索信息出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Z 12.21 18:32 捕鱼高风险
 12.23 14:57 列王高风险
 12.25 21:19 梦幻成功</t>
@@ -1126,10 +1087,6 @@
   </si>
   <si>
     <t>02108333558</t>
-  </si>
-  <si>
-    <t>02108333558</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sfsafvcvvq</t>
@@ -1149,10 +1106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kty7921d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4693960018321058</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hhofo7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rukas7921</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1231,10 +1180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jjlong7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.26 13:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1295,27 +1240,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12.26 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak477921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neo7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=G38:J38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friends7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4693960018321983</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.26 19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找不到游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ak477921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neo7921d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=G38:J38</t>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082834</t>
+  </si>
+  <si>
+    <t>02041082834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wife7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败 请添加有效支付方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1323,114 +1331,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friends7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si7921d</t>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018325331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enoughtime79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkmiss7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018321983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041082834</t>
-  </si>
-  <si>
-    <t>02041082834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wife7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>survive79d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付失败 请添加有效支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已销号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚机3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041082914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02041082914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018325331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enoughtime79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1492,14 +1417,22 @@
     <t>02041082874</t>
   </si>
   <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimoji7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tty20147d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新Google play时检索信息错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1508,7 +1441,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kimoji7921</t>
+    <t>ak4879d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killfly7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhofo7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkr7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041090614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjlong7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimojj2338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Google play时检索信息错
+更新Google play成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041083007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afk7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机3</t>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041082834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041084838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041084838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teemoo123132
+leesa7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041084843</t>
+  </si>
+  <si>
+    <t>12.23 1:24捕鱼高风险
+12.23 16:36 部落高风险
+12.24 10:31 魔灵高风险
+12.25 20:33 服务器检索信息出错
+leesa7921成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leesa7921已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kty7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oops7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkmiss7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teemoo123132
+试试别的机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive79d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eru3379d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqk2014d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak487921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108333558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041085340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108493691</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lili7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证 短信发不出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108493691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险
+信息检索出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calo7921d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.29 19:13高风险
+12.30 11:54服务器检索信息出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960017605022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kto7921j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak47dy7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xj1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02041084843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02108493691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20 9:35列王高风险
+12.24 1:03梦幻能充
+虚拟机坏了,账号应该能用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carmeinteri3660</t>
+  </si>
+  <si>
+    <t>xuji2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iuky7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6578.4qazbrxj5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Litd8c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12.30 22:00高风险 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 22:39高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OsbornhKimc80008</t>
+  </si>
+  <si>
+    <t>eyiwwk513brl</t>
+  </si>
+  <si>
+    <t>DeloresLeliavn292284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 22:59高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.30 11:50高风险
+12.30 23:26一级验证高风险
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险
+12.29 17:05高风险
+12.30 11:59高风险
+12.30 23:33二级验证高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已删号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 23:37二级验证高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1516,7 +1821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,6 +1872,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1640,7 +1952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1722,6 +2034,15 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2026,17 +2347,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -2061,22 +2382,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -2087,7 +2408,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2095,13 +2416,13 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2109,25 +2430,25 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -2135,25 +2456,25 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -2161,7 +2482,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
@@ -2170,11 +2491,11 @@
         <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2211,20 +2532,20 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2253,7 +2574,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2261,65 +2582,65 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6">
         <v>6</v>
@@ -2328,26 +2649,26 @@
         <v>16</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6">
         <v>7</v>
@@ -2356,13 +2677,13 @@
         <v>17</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
@@ -2375,20 +2696,20 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
@@ -2403,44 +2724,44 @@
         <v>2102864516</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -2453,22 +2774,22 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:34" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
@@ -2478,25 +2799,25 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
@@ -2506,23 +2827,23 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
@@ -2535,16 +2856,16 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -2557,16 +2878,16 @@
         <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -2577,25 +2898,25 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
@@ -2605,25 +2926,25 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H20" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
@@ -2633,997 +2954,1413 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H22" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>114</v>
+        <v>422</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>181</v>
+        <v>405</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="28" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="H26" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>232</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="28" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="28" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="28" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="28" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="28" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>208</v>
+      <c r="A44" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>285</v>
+      <c r="A46" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="A48" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>285</v>
+      <c r="D49" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="28" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>315</v>
+      <c r="A54" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>346</v>
-      </c>
+      <c r="A57" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E60" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="H64" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="F68" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>354</v>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A79" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A80" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A81" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A82" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +4375,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3653,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,31 +4398,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
+      <c r="B3" s="33" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>319</v>
+      <c r="B4" s="33" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
+      <c r="B5" s="33" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,31 +4438,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
+      <c r="B8" s="33" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>94</v>
+      <c r="B9" s="33" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>262</v>
+      <c r="B10" s="33" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/yuegoogle.xlsx
+++ b/yuegoogle.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="444">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,10 +484,6 @@
   <si>
     <t>12.20 21:02
 虚拟机手机直接创号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02040879226</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1437,10 +1432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ak4879d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1498,11 +1489,6 @@
   </si>
   <si>
     <t>kimojj2338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新Google play时检索信息错
-更新Google play成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1661,11 +1647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高风险
-信息检索出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>calo7921d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1684,10 +1665,6 @@
   </si>
   <si>
     <t>kto7921j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ak47dy7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1721,99 +1698,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>xuji2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iuky7921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6578.4qazbrxj5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已销号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Litd8c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+  </si>
+  <si>
+    <t>kawefjofe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeloresLeliavn292284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018320035</t>
+  </si>
+  <si>
+    <t>已删号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693960018321975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Google play时检索信息错
+更新Google play成功
+12.31 11:02高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OsbornhKimc80008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyiwwk513brl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak47dy7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02040879226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Carmeinteri3660</t>
-  </si>
-  <si>
-    <t>xuji2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iuky7921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6578.4qazbrxj5b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已销号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Litd8c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12.30 22:00高风险 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30 22:39高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kawefjofe</t>
-  </si>
-  <si>
-    <t>kawefjofe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OsbornhKimc80008</t>
-  </si>
-  <si>
-    <t>eyiwwk513brl</t>
-  </si>
-  <si>
-    <t>DeloresLeliavn292284</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30 22:59高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693960018320035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.30 11:50高风险
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 22:00高风险
+12.31 16:57高风险, 且绑定时无限正在登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险
+12.31 17:09一级验证高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 11:50高风险
 12.30 23:26一级验证高风险
-</t>
+12.31 8:55 二级验证高风险
+12.31 17:20 一级验证高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚机1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja91mnxal69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedinaAustinnu37545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高风险
+信息检索出 且无限正在登录中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.31 17:14 一级验证高风险
+1.1 8:26 二级高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.31 11:05高风险
+1.1 8:30二级高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 22:59高风险
+12.31 8:52一级验证高风险
+1.1 8:34二级高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02040879226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02040879226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.31 20:13二级验证高风险
+1.1 8:37 二级高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 23:37二级验证高风险
+12.31 9:03二级验证高风险
+12.31 20:16 二级验证高风险
+1.1 8:39 二级高风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30 22:39高风险
+12.31 8:54一级验证高风险
+12.31 20:11一级验证高风险
+1.1 8:40 一级高风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高风险
 12.29 17:05高风险
 12.30 11:59高风险
-12.30 23:33二级验证高风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已删号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.30 23:37二级验证高风险</t>
+12.30 23:33二级验证高风险
+12.31 9:00二级验证高风险
+12.31 17:22一级验证高风险
+1.1 8:45 1级高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Google play时检索信息错
+更新Google play成功, 找不到游戏
+1.1 8:54 二级高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.31 19:56 二级验证高风险
+1.1 8:55 二级高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1952,7 +2023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1984,9 +2055,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2007,15 +2075,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2043,6 +2102,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2347,11 +2409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2364,8 +2426,8 @@
     <col min="7" max="7" width="22.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="12"/>
+    <col min="10" max="10" width="16.33203125" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2448,7 +2510,7 @@
     </row>
     <row r="4" spans="1:34" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -2469,10 +2531,10 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>97</v>
       </c>
@@ -2495,34 +2557,34 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -2547,30 +2609,30 @@
       <c r="J6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2615,22 +2677,22 @@
         <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>159</v>
+      <c r="H8" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
@@ -2648,12 +2710,12 @@
       <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>224</v>
+      <c r="H9" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -2676,7 +2738,7 @@
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>77</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -2686,8 +2748,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="8"/>
@@ -2702,14 +2764,14 @@
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="43.2" x14ac:dyDescent="0.25">
@@ -2732,39 +2794,39 @@
       <c r="G12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>175</v>
+      <c r="H12" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="25" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="I13" s="29"/>
+      <c r="H13" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="25"/>
       <c r="J13" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -2772,9 +2834,9 @@
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>132</v>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>87</v>
@@ -2782,17 +2844,17 @@
       <c r="G14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>123</v>
+      <c r="H14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="16" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -2801,8 +2863,8 @@
       <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>150</v>
+      <c r="E15" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>88</v>
@@ -2810,17 +2872,17 @@
       <c r="G15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
@@ -2829,8 +2891,8 @@
       <c r="D16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>189</v>
+      <c r="E16" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>89</v>
@@ -2838,37 +2900,39 @@
       <c r="G16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>166</v>
+      <c r="H16" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2887,11 +2951,11 @@
         <v>101</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -2900,8 +2964,8 @@
       <c r="D19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>133</v>
+      <c r="E19" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>98</v>
@@ -2909,14 +2973,14 @@
       <c r="G19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>120</v>
+      <c r="H19" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
@@ -2928,7 +2992,7 @@
       <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2937,14 +3001,14 @@
       <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>122</v>
+      <c r="H20" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
@@ -2956,8 +3020,8 @@
       <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>140</v>
+      <c r="E21" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>107</v>
@@ -2965,14 +3029,14 @@
       <c r="G21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
@@ -2984,7 +3048,7 @@
       <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -2993,64 +3057,64 @@
       <c r="G22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>174</v>
+      <c r="H22" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26" t="s">
+      <c r="A23" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>405</v>
+      <c r="H23" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>135</v>
+      <c r="E24" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>254</v>
+        <v>137</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="28" t="s">
-        <v>183</v>
+      <c r="J24" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -3060,25 +3124,25 @@
         <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>167</v>
+        <v>135</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="28" t="s">
-        <v>240</v>
+      <c r="J25" s="24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -3088,1279 +3152,1325 @@
         <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="28" t="s">
-        <v>183</v>
+      <c r="J26" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="G27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="28" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="28" spans="1:10" ht="72" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>365</v>
+      <c r="A28" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>367</v>
+        <v>164</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="28" t="s">
-        <v>368</v>
+      <c r="J28" s="24" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>257</v>
+        <v>164</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="28" t="s">
-        <v>183</v>
+      <c r="J29" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>209</v>
+      <c r="H30" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="28" t="s">
-        <v>183</v>
+      <c r="J30" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>201</v>
+      <c r="H31" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="28" t="s">
-        <v>183</v>
+      <c r="J31" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="16" t="s">
-        <v>208</v>
+      <c r="H33" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="28" t="s">
-        <v>183</v>
+      <c r="J33" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="28" t="s">
-        <v>183</v>
+      <c r="J34" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="28" t="s">
-        <v>183</v>
+      <c r="J35" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="28" t="s">
-        <v>280</v>
+      <c r="J36" s="24" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="28" t="s">
-        <v>183</v>
+      <c r="J37" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="28" t="s">
-        <v>183</v>
+      <c r="J38" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="28" t="s">
-        <v>183</v>
+      <c r="J39" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="28" t="s">
-        <v>294</v>
+      <c r="J40" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="28" t="s">
-        <v>183</v>
+      <c r="J41" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="28" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="J43" s="28" t="s">
-        <v>183</v>
+      <c r="J43" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="28" t="s">
-        <v>183</v>
+      <c r="J44" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="28" t="s">
-        <v>183</v>
+      <c r="J45" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="28" t="s">
-        <v>183</v>
+      <c r="J46" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="28" t="s">
-        <v>183</v>
+      <c r="J47" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I48" s="7"/>
-      <c r="J48" s="28" t="s">
-        <v>353</v>
+      <c r="J48" s="24" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I49" s="7"/>
-      <c r="J49" s="28" t="s">
-        <v>183</v>
+      <c r="J49" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I50" s="7"/>
-      <c r="J50" s="28" t="s">
-        <v>183</v>
+      <c r="J50" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I51" s="7"/>
-      <c r="J51" s="28" t="s">
-        <v>183</v>
+      <c r="J51" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="28" t="s">
-        <v>183</v>
+      <c r="J54" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>302</v>
+      <c r="A55" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>301</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="28" t="s">
-        <v>183</v>
+      <c r="J55" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="28" t="s">
-        <v>183</v>
+      <c r="J56" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="21" t="s">
-        <v>328</v>
+      <c r="H57" s="20" t="s">
+        <v>327</v>
       </c>
       <c r="I57" s="10"/>
-      <c r="J57" s="34"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="28" t="s">
-        <v>183</v>
+      <c r="J58" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="21" t="s">
-        <v>396</v>
+      <c r="H59" s="20" t="s">
+        <v>392</v>
       </c>
       <c r="I59" s="10"/>
-      <c r="J59" s="34" t="s">
-        <v>415</v>
+      <c r="J59" s="30" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="F60" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="28" t="s">
-        <v>183</v>
+      <c r="J60" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="J61" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="J63" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="28" t="s">
-        <v>183</v>
+      <c r="J65" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="F67" s="26" t="s">
+      <c r="J66" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
         <v>347</v>
       </c>
+      <c r="F67" s="22" t="s">
+        <v>345</v>
+      </c>
       <c r="H67" s="5" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="28" t="s">
-        <v>183</v>
+      <c r="J68" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="28" t="s">
-        <v>183</v>
+      <c r="J69" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="28" t="s">
-        <v>183</v>
+      <c r="J70" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26" t="s">
+      <c r="A71" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="E71" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>370</v>
+      <c r="F71" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>376</v>
+      <c r="A72" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="J72" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="E74" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="F74" s="36" t="s">
+      <c r="A74" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36" t="s">
+    </row>
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E76" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F76" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="H77" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>401</v>
+      <c r="F78" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="24" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="37" t="s">
-        <v>412</v>
+      <c r="A79" s="33" t="s">
+        <v>406</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="28" t="s">
+      <c r="J79" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A80" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.35">
+      <c r="A81" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.35">
+      <c r="A82" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A85" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" s="31" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>424</v>
+      <c r="D85" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4485,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4390,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4398,31 +4508,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>356</v>
+      <c r="B3" s="29" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>304</v>
+      <c r="B4" s="29" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>363</v>
+      <c r="B5" s="29" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,15 +4555,15 @@
       <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>402</v>
+      <c r="B8" s="29" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4461,8 +4571,8 @@
       <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>386</v>
+      <c r="B10" s="29" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4580,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
